--- a/Tarefas.xlsx
+++ b/Tarefas.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
-    <t xml:space="preserve">Projeto Construção de Casa</t>
+    <t xml:space="preserve">Construção de Casa</t>
   </si>
   <si>
     <t xml:space="preserve">Tarefa</t>
@@ -115,7 +115,7 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -129,15 +129,21 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -145,6 +151,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -171,7 +184,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,11 +193,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,6 +222,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF2A6099"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -211,8 +292,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -257,196 +338,196 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>44228</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <f aca="false">C3+D3</f>
         <v>44238</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="4" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>44239</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <f aca="false">C4+D4</f>
         <v>44246</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="4" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>44247</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <f aca="false">C5+D5</f>
         <v>44252</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="4" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>44253</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <f aca="false">C6+D6</f>
         <v>44259</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="4" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>44257</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <f aca="false">C7+D7</f>
         <v>44262</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="4" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <v>44259</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <f aca="false">C8+D8</f>
         <v>44263</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="4" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <v>44259</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <f aca="false">C9+D9</f>
         <v>44264</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="4" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <v>44264</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <f aca="false">C10+D10</f>
         <v>44271</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="5" t="n">
         <v>44271</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <f aca="false">C11+D11</f>
         <v>44273</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="4"/>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
